--- a/Filtration Membranes (version 1).xlsb.xlsx
+++ b/Filtration Membranes (version 1).xlsb.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neeha\Desktop\Research\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neeha\Desktop\PopUpCity-master (4)\PopUpCity-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D740A7B8-BCC9-4DAC-BFDF-FA7B7B219757}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0EEBF72-0788-48F8-8280-49EA2FADF288}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8740" yWindow="0" windowWidth="9600" windowHeight="10200" xr2:uid="{691FA9D9-1714-4DC6-8898-4F73CF1197CB}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{691FA9D9-1714-4DC6-8898-4F73CF1197CB}"/>
   </bookViews>
   <sheets>
     <sheet name="RO" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,6 @@
     <sheet name="NF" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="59">
   <si>
     <t>Water Filtration Membranes Data</t>
   </si>
@@ -194,6 +193,24 @@
   </si>
   <si>
     <t>Pressure Vessel Cost</t>
+  </si>
+  <si>
+    <t>Nanofiltration</t>
+  </si>
+  <si>
+    <t>Synder Filtration</t>
+  </si>
+  <si>
+    <t>NFG</t>
+  </si>
+  <si>
+    <t>NFS</t>
+  </si>
+  <si>
+    <t>NFW</t>
+  </si>
+  <si>
+    <t>NFX</t>
   </si>
 </sst>
 </file>
@@ -335,7 +352,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -368,6 +385,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
@@ -384,12 +410,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -711,8 +731,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8942DC1-DD98-498D-923F-1E263F44B803}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="68" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView topLeftCell="M1" zoomScale="68" workbookViewId="0">
+      <selection sqref="A1:Q3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -731,44 +751,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="20" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13"/>
-      <c r="Q1" s="13"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
+      <c r="Q1" s="16"/>
     </row>
     <row r="2" spans="1:17" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12" t="s">
+      <c r="F2" s="15"/>
+      <c r="G2" s="15" t="s">
         <v>9</v>
       </c>
       <c r="H2" s="1" t="s">
@@ -777,57 +797,57 @@
       <c r="I2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="J2" s="16" t="s">
+      <c r="J2" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="K2" s="16" t="s">
+      <c r="K2" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="L2" s="16" t="s">
+      <c r="L2" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="M2" s="16" t="s">
+      <c r="M2" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="N2" s="16" t="s">
+      <c r="N2" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="O2" s="14" t="s">
+      <c r="O2" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="P2" s="11" t="s">
+      <c r="P2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="Q2" s="11" t="s">
+      <c r="Q2" s="14" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A3" s="12"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="15"/>
+      <c r="A3" s="15"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="18"/>
       <c r="E3" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="12"/>
+      <c r="G3" s="15"/>
       <c r="H3" s="7" t="s">
         <v>24</v>
       </c>
       <c r="I3" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="15"/>
-      <c r="O3" s="15"/>
-      <c r="P3" s="11"/>
-      <c r="Q3" s="11"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="14"/>
+      <c r="Q3" s="14"/>
     </row>
     <row r="4" spans="1:17" ht="58" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
@@ -1108,7 +1128,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D90291F1-449A-414E-8929-F6CFB2A82FAC}">
   <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="83" workbookViewId="0">
+    <sheetView zoomScale="83" workbookViewId="0">
       <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
@@ -1127,36 +1147,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="20" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
     </row>
     <row r="2" spans="1:12" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12" t="s">
+      <c r="E2" s="15"/>
+      <c r="F2" s="15" t="s">
         <v>9</v>
       </c>
       <c r="G2" s="10" t="s">
@@ -1165,40 +1185,40 @@
       <c r="H2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="17" t="s">
+      <c r="I2" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="J2" s="14" t="s">
+      <c r="J2" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="K2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="11" t="s">
+      <c r="L2" s="14" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A3" s="12"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
+      <c r="A3" s="15"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
       <c r="D3" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E3" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="12"/>
+      <c r="F3" s="15"/>
       <c r="G3" s="7" t="s">
         <v>24</v>
       </c>
       <c r="H3" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="18"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
     </row>
     <row r="4" spans="1:12" ht="98" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
@@ -1322,36 +1342,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="20" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
     </row>
     <row r="2" spans="1:12" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12" t="s">
+      <c r="E2" s="15"/>
+      <c r="F2" s="15" t="s">
         <v>9</v>
       </c>
       <c r="G2" s="2" t="s">
@@ -1360,40 +1380,40 @@
       <c r="H2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="17" t="s">
+      <c r="I2" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="J2" s="14" t="s">
+      <c r="J2" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="K2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="11" t="s">
+      <c r="L2" s="14" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A3" s="12"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
+      <c r="A3" s="15"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
       <c r="D3" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="12"/>
+      <c r="F3" s="15"/>
       <c r="G3" s="7" t="s">
         <v>24</v>
       </c>
       <c r="H3" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="18"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
     </row>
     <row r="4" spans="1:12" ht="58" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
@@ -1564,104 +1584,319 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB37AAF7-9C88-43E7-BB28-100BD631C8C2}">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:Q7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="15.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.54296875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.90625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.90625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="11.90625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.7265625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.08984375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.81640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.08984375" customWidth="1"/>
+    <col min="8" max="9" width="20.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.26953125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="17.453125" customWidth="1"/>
+    <col min="12" max="12" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:17" ht="20" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-    </row>
-    <row r="2" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="12" t="s">
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
+      <c r="Q1" s="16"/>
+    </row>
+    <row r="2" spans="1:17" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="15"/>
+      <c r="G2" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="H2" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="14" t="s">
+      <c r="J2" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="K2" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="M2" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="N2" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="P2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="Q2" s="14" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A3" s="12"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="3" t="s">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A3" s="15"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="F3" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="12"/>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="15"/>
+      <c r="H3" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="I3" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="15"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="14"/>
+      <c r="Q3" s="14"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>2.5</v>
+      </c>
+      <c r="F4">
+        <v>40</v>
+      </c>
+      <c r="G4">
+        <v>326</v>
+      </c>
+      <c r="H4">
+        <v>435</v>
+      </c>
+      <c r="I4">
+        <v>40</v>
+      </c>
+      <c r="J4">
+        <v>200</v>
+      </c>
+      <c r="K4">
+        <v>4.7</v>
+      </c>
+      <c r="L4">
+        <v>0.15</v>
+      </c>
+      <c r="M4">
+        <v>1.4</v>
+      </c>
+      <c r="N4">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>2.5</v>
+      </c>
+      <c r="F5">
+        <v>40</v>
+      </c>
+      <c r="G5">
+        <v>326</v>
+      </c>
+      <c r="H5">
+        <v>435</v>
+      </c>
+      <c r="I5">
+        <v>40</v>
+      </c>
+      <c r="J5">
+        <v>200</v>
+      </c>
+      <c r="K5">
+        <v>4.7</v>
+      </c>
+      <c r="L5">
+        <v>0.15</v>
+      </c>
+      <c r="M5">
+        <v>1.4</v>
+      </c>
+      <c r="N5">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6">
+        <v>2.5</v>
+      </c>
+      <c r="F6">
+        <v>40</v>
+      </c>
+      <c r="G6">
+        <v>326</v>
+      </c>
+      <c r="H6">
+        <v>435</v>
+      </c>
+      <c r="I6">
+        <v>40</v>
+      </c>
+      <c r="J6">
+        <v>200</v>
+      </c>
+      <c r="K6">
+        <v>4.7</v>
+      </c>
+      <c r="L6">
+        <v>0.15</v>
+      </c>
+      <c r="M6">
+        <v>1.4</v>
+      </c>
+      <c r="N6">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7">
+        <v>4</v>
+      </c>
+      <c r="E7">
+        <v>2.5</v>
+      </c>
+      <c r="F7">
+        <v>40</v>
+      </c>
+      <c r="G7">
+        <v>326</v>
+      </c>
+      <c r="H7">
+        <v>435</v>
+      </c>
+      <c r="I7">
+        <v>40</v>
+      </c>
+      <c r="J7">
+        <v>200</v>
+      </c>
+      <c r="K7">
+        <v>4.7</v>
+      </c>
+      <c r="L7">
+        <v>0.15</v>
+      </c>
+      <c r="M7">
+        <v>1.4</v>
+      </c>
+      <c r="N7">
+        <v>67</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="A1:K1"/>
+  <mergeCells count="15">
+    <mergeCell ref="A1:Q1"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="Q2:Q3"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="I2:I3"/>
     <mergeCell ref="J2:J3"/>
     <mergeCell ref="K2:K3"/>
   </mergeCells>
